--- a/Application/DriverReports Route - 1.xlsx
+++ b/Application/DriverReports Route - 1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="33">
   <si>
     <t>Route: 1</t>
   </si>
@@ -44,7 +44,7 @@
     <t>Wed</t>
   </si>
   <si>
-    <t>Thurs</t>
+    <t>Thu</t>
   </si>
   <si>
     <t>Fri</t>
@@ -99,6 +99,21 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Bruce Batman</t>
+  </si>
+  <si>
+    <t>Wayne</t>
+  </si>
+  <si>
+    <t>1203971230</t>
+  </si>
+  <si>
+    <t>15 Gotham Road
+Gotham Place
+Gotham
+8126</t>
   </si>
 </sst>
 </file>
@@ -123,7 +138,7 @@
       <patternFill patternType="darkGray"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -131,12 +146,193 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
   </cellXfs>
 </styleSheet>
 </file>
@@ -148,37 +344,276 @@
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="12.1875" customWidth="true"/>
+    <col min="2" max="2" width="9.375" customWidth="true"/>
+    <col min="3" max="3" width="11.25" customWidth="true"/>
+    <col min="4" max="4" width="3.90625" customWidth="true"/>
+    <col min="5" max="5" width="3.90625" customWidth="true"/>
+    <col min="6" max="6" width="3.90625" customWidth="true"/>
+    <col min="7" max="7" width="3.90625" customWidth="true"/>
+    <col min="8" max="8" width="3.90625" customWidth="true"/>
+    <col min="9" max="9" width="55.3125" customWidth="true"/>
+    <col min="10" max="10" width="27.65625" customWidth="true"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="3">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="4">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="6">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="7">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="8">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s" s="9">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="10">
+        <v>3</v>
+      </c>
+      <c r="K1" t="s" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="13">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="14">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="15">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="16">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="17">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="18">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="19">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="20">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="22">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s" s="23">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s" s="24">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s" s="25">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s" s="26">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s" s="27">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s" s="28">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s" s="29">
+        <v>11</v>
+      </c>
+      <c r="I3" t="s" s="30">
+        <v>12</v>
+      </c>
+      <c r="J3" t="s" s="31">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="32">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s" s="33">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s" s="34">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s" s="35">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s" s="36">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s" s="37">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s" s="38">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s" s="39">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s" s="40">
+        <v>17</v>
+      </c>
+      <c r="J4" t="s" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="42">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s" s="43">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s" s="44">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s" s="45">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s" s="46">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s" s="47">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s" s="48">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s" s="49">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s" s="50">
+        <v>21</v>
+      </c>
+      <c r="J5" t="s" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="52">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s" s="53">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s" s="54">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s" s="55">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s" s="56">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s" s="57">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s" s="58">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s" s="59">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s" s="60">
+        <v>25</v>
+      </c>
+      <c r="J6" t="s" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="62">
         <v>26</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B7" t="s" s="63">
         <v>27</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C7" t="s" s="64">
         <v>24</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="D7" t="s" s="65">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s" s="66">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s" s="67">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s" s="68">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s" s="69">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s" s="70">
         <v>28</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J7" t="s" s="71">
         <v>28</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="72">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s" s="73">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s" s="74">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s" s="75">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s" s="76">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s" s="77">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s" s="78">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s" s="79">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s" s="80">
+        <v>32</v>
+      </c>
+      <c r="J8" t="s" s="81">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Application/DriverReports Route - 1.xlsx
+++ b/Application/DriverReports Route - 1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="23">
   <si>
     <t>Doorstep Chef Driver Sheet</t>
   </si>
@@ -63,6 +63,24 @@
   </si>
   <si>
     <t>asdasdasd</t>
+  </si>
+  <si>
+    <t>Twilight Sparkle</t>
+  </si>
+  <si>
+    <t>8172390487</t>
+  </si>
+  <si>
+    <t>83 Candy Lane Castle Ponyville 5205</t>
+  </si>
+  <si>
+    <t>Press 4</t>
+  </si>
+  <si>
+    <t>Carli Kriel</t>
+  </si>
+  <si>
+    <t>0215510527</t>
   </si>
 </sst>
 </file>
@@ -238,7 +256,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -378,6 +396,132 @@
       <top>
         <color indexed="8"/>
       </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
       <bottom style="medium">
         <color indexed="8"/>
       </bottom>
@@ -400,27 +544,13 @@
       <left style="thin">
         <color indexed="8"/>
       </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top>
-        <color indexed="8"/>
-      </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
       <right style="thin">
         <color indexed="8"/>
       </right>
       <top>
         <color indexed="8"/>
       </top>
-      <bottom>
+      <bottom style="medium">
         <color indexed="8"/>
       </bottom>
     </border>
@@ -431,38 +561,10 @@
       <right style="thin">
         <color indexed="8"/>
       </right>
-      <top>
+      <top style="thin">
         <color indexed="8"/>
       </top>
       <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top>
-        <color indexed="8"/>
-      </top>
-      <bottom>
         <color indexed="8"/>
       </bottom>
     </border>
@@ -498,7 +600,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -568,6 +670,32 @@
       <alignment horizontal="justify" vertical="justify"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="true">
       <alignment horizontal="justify" vertical="justify"/>
     </xf>
   </cellXfs>
@@ -709,6 +837,64 @@
         <v>1</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s" s="37">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s" s="38">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s" s="39">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s" s="40">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s" s="41">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s" s="42">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s" s="43">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s" s="44">
+        <v>19</v>
+      </c>
+      <c r="I5" t="s" s="45">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="46">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s" s="47">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s" s="48">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s" s="49">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s" s="50">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s" s="51">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s" s="52">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s" s="53">
+        <v>16</v>
+      </c>
+      <c r="I6" t="s" s="54">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:B1"/>
